--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_46.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_46.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,606 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09018567639257294</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1339285714285714</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj'], ['C#:maj', 'G#:maj', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (13.74, 22.56)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(18.42, 24.34), (9.24, 16.26)]</t>
+          <t>[('0:00:00.480000', '0:00:08.480000'), ('0:00:09.060000', '0:00:10.780000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:59.500000', '0:01:05.040000'), ('0:00:00.340000', '0:00:17.940000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2066666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1000625390869293</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'E/7', 'E/6', 'E/5']]</t>
+          <t>[['A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(8.7, 13.18)]</t>
+          <t>[['F:7', 'Bb', 'Bb:min', 'F']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(80.022335, 83.702698)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:05.460000', '0:00:15.600000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:30.390000', '0:00:34.950000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.09545454545454544</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F/3', 'Bb', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1064102564102564</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'G']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(63.461, 66.163)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(25.807392, 30.753242)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_23</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.02992294520547945</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab', 'Eb:7']]</t>
-        </is>
+          <t>isophonics_128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_288</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1206140350877193</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'F:7']]</t>
+          <t>[['G', 'C', 'F'], ['G', 'C', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(15.73, 17.33)]</t>
+          <t>[['B', 'E', 'A'], ['B', 'E', 'C#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(15.25, 22.53)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:09.717289', '0:00:14.199024'), ('0:00:04.365655', '0:00:09.717289')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:30.424512', '0:00:35.962471'), ('0:00:48.338707', '0:00:51.090272')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_49</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.03844424460431654</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'D:7', 'G:7', 'G:7']]</t>
-        </is>
+          <t>isophonics_223</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1229096989966555</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'C:7', 'F:7', 'F:7']]</t>
+          <t>[['A', 'F#:min', 'B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.47, 12.05)]</t>
+          <t>[['F/7', 'D:min', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(16.39, 19.67)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:35.172993', '0:00:42.127369')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:17.079669', '0:00:20.130022')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3736263736263736</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(45.26, 57.58)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.22, 7.72)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:06.160000', '0:00:15.080000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2946428571428572</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(7.525011, 12.93526)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(52.74, 60.86)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:02:00.220000', '0:02:01.920000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2788461538461539</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'D', 'A'], ['D', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A', 'E/4', 'D/5', 'A'], ['D/5', 'A', 'D', 'A/3']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(47.01526, 67.077301), (102.174263, 115.003287)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(7.386, 14.409), (12.743, 17.058)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:06.415079', '0:00:14.054444')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D10" t="inlineStr">
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3541666666666666</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>[(60.04, 67.08)]</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(38.041, 42.375)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1507352941176471</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A'], ['B:7', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4857142857142857</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['D:7', 'G:maj', 'C:maj']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D', 'D:7']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(91.834264, 98.974002), (32.36796, 41.621112)]</t>
+          <t>[['E', 'A', 'E', 'B:7']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(10.54, 12.72), (62.6, 73.24)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:03.600000', '0:01:06.340000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:40.569342', '0:01:53.665396')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1507352941176471</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'E']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(32.874217, 50.277573)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(14.033, 23.861)]</t>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.106312292358804</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(23.18, 30.14)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.26, 16.52)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.360000', '0:00:08.660000'), ('0:01:13.400000', '0:01:21.180000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1418067226890756</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'G'], ['A', 'D', 'D/5'], ['G', 'A', 'D'], ['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D'], ['E', 'A', 'A'], ['D', 'E', 'A'], ['A', 'D', 'A']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.440395, 9.431879), (13.657911, 17.965212), (12.241493, 16.525575), (1.014823, 12.241493)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.30541, 12.800013), (1.274255, 5.746892), (53.551034, 58.903233), (11.070127, 13.723731)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06991869918699187</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E/4', 'A', 'A']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(3.142662, 9.133411)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(6.779, 9.34)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1040372670807453</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj']]</t>
+          <t>[['D#:min', 'B', 'F:hdim7/G#', 'A#:7', 'D#:min', 'G#:min/B', 'A#:7', 'F#:min/A', 'G#:7', 'C#:min', 'G#:7', 'C#:min', 'G#', 'G#:min', 'D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(54.89, 61.21)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(64.58, 73.88)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:16.520000', '0:01:04.980000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_49</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.08888888888888888</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(3.142662, 9.133411)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(7.605, 11.853)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
